--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyanfei/Netease/在校大作业_测开/NeteaseWork/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE72564-91C3-2A40-93BB-B09A1123C084}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70AA48CE-F1A8-B44D-8259-21D5CEC20DFF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="15920" activeTab="3" xr2:uid="{FFDDE153-C3E9-164E-B69E-D800EF1416BE}"/>
   </bookViews>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
